--- a/reference/KK14/obsdescriptions.xlsx
+++ b/reference/KK14/obsdescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\KK14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94377AA2-DB4F-45D8-A497-FF3B2EE2A652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E12E6-B50B-48CA-BECF-CBE88A9E2F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="2088" windowWidth="17280" windowHeight="9072" xr2:uid="{E5E00D39-F3B3-43E1-9F7D-489490245BBB}"/>
+    <workbookView minimized="1" xWindow="3708" yWindow="2988" windowWidth="16920" windowHeight="9072" xr2:uid="{E5E00D39-F3B3-43E1-9F7D-489490245BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>c_obs</t>
   </si>
@@ -274,9 +274,6 @@
     <t>wage_rgd_demean_obs</t>
   </si>
   <si>
-    <t>using wage_rgd_demean_obs</t>
-  </si>
-  <si>
     <t>ln_tau_w</t>
   </si>
   <si>
@@ -290,6 +287,12 @@
   </si>
   <si>
     <t>Implemented?</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>very close to wage_rgd_demean_obs/100</t>
   </si>
 </sst>
 </file>
@@ -28279,12 +28282,12 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="1"/>
     <col min="7" max="7" width="57.88671875" customWidth="1"/>
@@ -28301,7 +28304,7 @@
         <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>59</v>
@@ -28477,6 +28480,9 @@
       <c r="A12" t="s">
         <v>71</v>
       </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
@@ -28500,6 +28506,9 @@
       <c r="B13" t="s">
         <v>72</v>
       </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
@@ -28515,7 +28524,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -28538,7 +28550,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -28583,6 +28598,9 @@
       <c r="A17" t="s">
         <v>71</v>
       </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
@@ -28652,7 +28670,10 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
@@ -28676,6 +28697,9 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -32209,7 +32233,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -33375,7 +33399,7 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -36743,7 +36767,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -37910,7 +37934,7 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/reference/KK14/obsdescriptions.xlsx
+++ b/reference/KK14/obsdescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\KK14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E12E6-B50B-48CA-BECF-CBE88A9E2F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D190A92D-9EC0-4BD0-8A35-742A36BF3E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3708" yWindow="2988" windowWidth="16920" windowHeight="9072" xr2:uid="{E5E00D39-F3B3-43E1-9F7D-489490245BBB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="12504" xr2:uid="{E5E00D39-F3B3-43E1-9F7D-489490245BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1814,7 +1814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81454607"/>
@@ -1872,7 +1872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="356774911"/>
@@ -1914,7 +1914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1951,7 +1951,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2002,7 +2002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3403,7 +3403,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="73242639"/>
@@ -3461,7 +3461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="73596431"/>
@@ -3503,7 +3503,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3540,7 +3540,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3591,7 +3591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4992,7 +4992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="125570415"/>
@@ -5050,7 +5050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="132057887"/>
@@ -5092,7 +5092,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5129,7 +5129,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5180,7 +5180,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9417,7 +9417,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1180926943"/>
@@ -9476,7 +9476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1344401967"/>
@@ -9518,7 +9518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9555,7 +9555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9606,7 +9606,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11722,7 +11722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81181599"/>
@@ -11781,7 +11781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="75128063"/>
@@ -11823,7 +11823,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11860,7 +11860,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11911,7 +11911,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13312,7 +13312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1125160351"/>
@@ -13370,7 +13370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1259036607"/>
@@ -13412,7 +13412,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13449,7 +13449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13500,7 +13500,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14901,7 +14901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="152000911"/>
@@ -14959,7 +14959,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="75129663"/>
@@ -15001,7 +15001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15038,7 +15038,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15089,7 +15089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16490,7 +16490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="65239391"/>
@@ -16548,7 +16548,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2079622143"/>
@@ -16590,7 +16590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16627,7 +16627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16678,7 +16678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18079,7 +18079,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69449167"/>
@@ -18137,7 +18137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69027119"/>
@@ -18179,7 +18179,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18216,7 +18216,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18267,7 +18267,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19678,7 +19678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1336140704"/>
@@ -19736,7 +19736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1259613328"/>
@@ -19778,7 +19778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19815,7 +19815,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19866,7 +19866,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21267,7 +21267,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1261570576"/>
@@ -21325,7 +21325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1370629392"/>
@@ -21367,7 +21367,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21404,7 +21404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -28281,14 +28281,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C87BAA8-FB8A-49B5-9842-FA16A107479D}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="1"/>
     <col min="7" max="7" width="57.88671875" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
